--- a/Data-Results.xlsx
+++ b/Data-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e6dbdf7f0022e79/Documentos/Coding/Year4Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="8_{0BC8DA0B-0130-48BD-B188-9C39C0A17F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E023B2-1030-43FC-B3FD-D01D4D6E8CE2}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="8_{0BC8DA0B-0130-48BD-B188-9C39C0A17F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D915B377-008B-4E82-A6A1-45BB5B3E8F96}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="3" xr2:uid="{198E8DF6-2ADD-4C06-9DC2-C20D7FF0DDA5}"/>
   </bookViews>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,19 +523,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Error Heading" xfId="5" xr:uid="{AC53FDE9-7BCD-4468-B859-742A84432ADD}"/>
@@ -5853,7 +5852,7 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6577,7 +6576,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6587,7 +6586,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -6603,16 +6602,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7332,7 +7331,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7360,13 +7359,13 @@
       <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8085,7 +8084,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8093,9 +8092,9 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
@@ -8113,13 +8112,13 @@
       <c r="D1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8136,15 +8135,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4099999999999997</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>2.87</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.15835777126099695</v>
       </c>
@@ -8166,15 +8165,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4352</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>4.29</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.24883558453656265</v>
       </c>
@@ -8192,15 +8191,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4352</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.36</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>2.1891010712622307E-2</v>
       </c>
@@ -8218,15 +8217,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4621999999999997</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.06</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.1161689099416555</v>
       </c>
@@ -8244,15 +8243,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4621999999999997</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>2.79</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.19415400612327413</v>
       </c>
@@ -8270,15 +8269,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4873999999999996</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.9</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.1183116361759478</v>
       </c>
@@ -8296,15 +8295,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4873999999999996</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.23</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>7.3808567987612456E-2</v>
       </c>
@@ -8322,15 +8321,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4873999999999996</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.89</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.11544417044216337</v>
       </c>
@@ -8348,15 +8347,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.4873999999999996</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.5</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>3.6130068245685582E-3</v>
       </c>
@@ -8374,15 +8373,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.5125999999999999</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.51</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>7.4019245003705458E-4</v>
       </c>
@@ -8400,15 +8399,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.5125999999999999</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.37</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>4.059670899049133E-2</v>
       </c>
@@ -8426,15 +8425,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.5125999999999999</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>2.99</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.14877868245743886</v>
       </c>
@@ -8452,15 +8451,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.59</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.44</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>4.1782729805013907E-2</v>
       </c>
@@ -8478,15 +8477,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.59</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.74</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>4.1782729805014025E-2</v>
       </c>
@@ -8504,15 +8503,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Diseased</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.6925999999999997</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.07</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.16860748524075175</v>
       </c>
@@ -8530,15 +8529,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>3.6925999999999997</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.19</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.13611005795374526</v>
       </c>
@@ -8556,15 +8555,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>4.67</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>7.22</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.54603854389721629</v>
       </c>
@@ -8582,15 +8581,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Diseased</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>2.99</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.38350515463917517</v>
       </c>
@@ -8608,15 +8607,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Diseased</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>4.8751999999999995</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>6.26</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.28404988513291768</v>
       </c>
@@ -8634,15 +8633,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Diseased</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>5.0047999999999995</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>3.35</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.3306425831202045</v>
       </c>
@@ -8660,15 +8659,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>5.39</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>4.8600000000000003</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>9.8330241187383927E-2</v>
       </c>
@@ -8686,15 +8685,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>5.39</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>5.47</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>1.4842300556586285E-2</v>
       </c>
@@ -8712,15 +8711,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>5.39</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>5.91</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>9.6474953617810846E-2</v>
       </c>
@@ -8738,15 +8737,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>5.39</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>5.55</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>2.968460111317257E-2</v>
       </c>
@@ -8764,15 +8763,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>5.4925999999999995</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>5.03</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>8.4222408331209128E-2</v>
       </c>
@@ -8790,15 +8789,15 @@
         <f>Table1[[#This Row],[Condition]]</f>
         <v>Healthy</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="20">
         <f>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</f>
         <v>5.5699999999999994</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <f>Table1[[#This Row],[Transv. Ao. (mm)]]</f>
         <v>5.14</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>7.7199281867145378E-2</v>
       </c>

--- a/Data-Results.xlsx
+++ b/Data-Results.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e6dbdf7f0022e79/Documentos/Coding/Year4Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e6dbdf7f0022e79/Documentos/Coding/Year4Project/FYP_Aortic_Anatomy_CODE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="8_{0BC8DA0B-0130-48BD-B188-9C39C0A17F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D915B377-008B-4E82-A6A1-45BB5B3E8F96}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="8_{0BC8DA0B-0130-48BD-B188-9C39C0A17F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BE03103-0B64-4E12-B03F-9CF73310AA46}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="3" xr2:uid="{198E8DF6-2ADD-4C06-9DC2-C20D7FF0DDA5}"/>
+    <workbookView minimized="1" xWindow="15" yWindow="0" windowWidth="20505" windowHeight="13080" activeTab="5" xr2:uid="{198E8DF6-2ADD-4C06-9DC2-C20D7FF0DDA5}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
     <sheet name="Aortic Root" sheetId="2" r:id="rId2"/>
     <sheet name="Ascending Aorta" sheetId="3" r:id="rId3"/>
     <sheet name="Tranverse Aorta" sheetId="4" r:id="rId4"/>
+    <sheet name="Uncertainty" sheetId="5" r:id="rId5"/>
+    <sheet name="Correlation Information" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -78,7 +80,7 @@
     <t>(0.117647, 0.117647, 0.500000)</t>
   </si>
   <si>
-    <t>15Oct2019P1</t>
+    <t>95pre</t>
   </si>
   <si>
     <t>15Oct2019P2</t>
@@ -180,9 +182,6 @@
     <t>28weekshealthy</t>
   </si>
   <si>
-    <t>95pre</t>
-  </si>
-  <si>
     <t>90pre_10000024</t>
   </si>
   <si>
@@ -208,6 +207,9 @@
   </si>
   <si>
     <t>(0.088496, 0.088496, 0.500000)</t>
+  </si>
+  <si>
+    <t>15Oct2019P1</t>
   </si>
   <si>
     <t>(0.084746, 0.084746, 0.500000)</t>
@@ -242,15 +244,140 @@
   <si>
     <t>Error Transv. Ao.</t>
   </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>33 weeks</t>
+  </si>
+  <si>
+    <t>Ao Root 1</t>
+  </si>
+  <si>
+    <t>Ao Root 2</t>
+  </si>
+  <si>
+    <t>Ao Root 3</t>
+  </si>
+  <si>
+    <t>Ao Root 4</t>
+  </si>
+  <si>
+    <t>Ao Root 5</t>
+  </si>
+  <si>
+    <t>Asc Aorta 1</t>
+  </si>
+  <si>
+    <t>Asc Aorta 2</t>
+  </si>
+  <si>
+    <t>Asc Aorta 3</t>
+  </si>
+  <si>
+    <t>Asc Aorta 4</t>
+  </si>
+  <si>
+    <t>Asc Aorta 5</t>
+  </si>
+  <si>
+    <t>Trsnvs. Aorta 1</t>
+  </si>
+  <si>
+    <t>Trsnvs. Aorta 2</t>
+  </si>
+  <si>
+    <t>Trsnvs. Aorta 3</t>
+  </si>
+  <si>
+    <t>Trsnvs. Aorta 4</t>
+  </si>
+  <si>
+    <t>Trsnvs. Aorta 5</t>
+  </si>
+  <si>
+    <t>29 weeks (95pre)</t>
+  </si>
+  <si>
+    <t>22 weeks (17Sep)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Number of readings</t>
+  </si>
+  <si>
+    <t>Mean Asc. Aorta</t>
+  </si>
+  <si>
+    <t>Mean Ao. Root</t>
+  </si>
+  <si>
+    <t>Mean Trasnvs. Aorta</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>T-value</t>
+  </si>
+  <si>
+    <t>Degrees of Freedom</t>
+  </si>
+  <si>
+    <t>Type of Tail</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>95% Confidence Interval</t>
+  </si>
+  <si>
+    <t>Cohen's D</t>
+  </si>
+  <si>
+    <t>Bayes Factor</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Aortic Root</t>
+  </si>
+  <si>
+    <t>Ascending Aorta</t>
+  </si>
+  <si>
+    <t>Transverse Aorta</t>
+  </si>
+  <si>
+    <t>two-sided</t>
+  </si>
+  <si>
+    <t>[0.1  0.82]</t>
+  </si>
+  <si>
+    <t>[-0.33  0.38]</t>
+  </si>
+  <si>
+    <t>[-0.26  0.44]</t>
+  </si>
+  <si>
+    <t>Pearson's Correlation (r)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +440,44 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,8 +507,49 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -488,8 +692,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,8 +860,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,21 +899,190 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="13"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="22" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="19" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="22" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="12" borderId="19" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="14">
+    <cellStyle name="60% - Accent1" xfId="8" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
+    <cellStyle name="60% - Accent6" xfId="10" builtinId="52"/>
+    <cellStyle name="Calculation" xfId="7" builtinId="22"/>
     <cellStyle name="Error Heading" xfId="5" xr:uid="{AC53FDE9-7BCD-4468-B859-742A84432ADD}"/>
     <cellStyle name="Error heading 2" xfId="6" xr:uid="{31F2F1BA-3378-4BC7-9578-F84C674AC0BA}"/>
     <cellStyle name="Error Style" xfId="4" xr:uid="{E9BA49E9-AD86-4F39-AE62-B5A47DB83F1B}"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="header" xfId="11" xr:uid="{5C1C37FA-EC68-427D-ADC2-CF10308B21A1}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Style 1" xfId="3" xr:uid="{AA0F96DA-1C98-45F7-BCC6-0D729655CAE3}"/>
-    <cellStyle name="Texto explicativo" xfId="2" builtinId="53"/>
+    <cellStyle name="Style 2" xfId="12" xr:uid="{EBBA3DF0-8298-40D3-A277-BD331CABD666}"/>
+    <cellStyle name="Style 3" xfId="13" xr:uid="{500957B6-8576-4B06-A84E-8A69FF6938B7}"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="60">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -582,6 +1119,33 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -594,7 +1158,7 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF3F3F3F"/>
         </left>
@@ -605,12 +1169,6 @@
         <bottom style="thin">
           <color rgb="FF3F3F3F"/>
         </bottom>
-        <vertical style="thin">
-          <color rgb="FF3F3F3F"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FF3F3F3F"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -802,13 +1360,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF3F3F3F"/>
@@ -819,6 +1370,13 @@
         <top style="thin">
           <color rgb="FF3F3F3F"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color rgb="FF3F3F3F"/>
         </bottom>
@@ -866,30 +1424,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="2" tint="-0.24994659260841701"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -908,6 +1442,9 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -937,9 +1474,7 @@
         <left style="thin">
           <color rgb="FF3F3F3F"/>
         </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
+        <right/>
         <top style="thin">
           <color rgb="FF3F3F3F"/>
         </top>
@@ -1132,16 +1667,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color rgb="FF3F3F3F"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color rgb="FF3F3F3F"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1180,54 +1715,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="2" tint="-0.24994659260841701"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1255,9 +1742,7 @@
         <left style="thin">
           <color rgb="FF3F3F3F"/>
         </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
+        <right/>
         <top style="thin">
           <color rgb="FF3F3F3F"/>
         </top>
@@ -1456,16 +1941,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color rgb="FF3F3F3F"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color rgb="FF3F3F3F"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1502,30 +1987,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="2" tint="-0.24994659260841701"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1761,31 +2222,33 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="2" tint="-0.24994659260841701"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <border>
-        <vertical/>
-        <horizontal/>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{72B1552C-9810-4949-AB43-F24C6B8A28BD}">
+      <tableStyleElement type="wholeTable" dxfId="59"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFB9B9"/>
@@ -1805,7 +2268,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2133,7 +2596,7 @@
                   <c:v>5.79</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.03</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2403,7 +2866,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2731,7 +3194,7 @@
                   <c:v>6.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.82</c:v>
+                  <c:v>5.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,7 +3464,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5229,16 +5692,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5270,16 +5733,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552448</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>452436</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5313,16 +5776,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5353,27 +5816,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1F7AD18-E58C-4B6E-A467-6AC4AEC2E5F3}" name="Table1" displayName="Table1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="52" tableBorderDxfId="51" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1F7AD18-E58C-4B6E-A467-6AC4AEC2E5F3}" name="Table1" displayName="Table1" ref="A1:H27" totalsRowShown="0" headerRowDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Normal">
   <autoFilter ref="A1:H27" xr:uid="{EC3E02B3-7B65-46DE-A2AF-AC27C4CEA03D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H27">
     <sortCondition ref="B1:B27"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1C3F3917-5792-4E8E-AC6F-F48554D7D4D7}" name="Name" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{336EBA03-9898-4335-9A76-A52CA540CFDF}" name="Gestational Age (weeks)" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{BA6BDD30-A8F8-42FC-96C2-9A31291DE7C0}" name="Condition" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{9F4D0135-27FA-43D0-ACF5-07FA98D378FC}" name="Modeled?" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{A4692683-A0A0-4ABB-A325-AFE2AE76FBCB}" name="Scale" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{39BD6DEA-B984-4096-8B38-D4BF25A5FACE}" name="Ao. Root (mm)" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{3D94241B-1880-497A-A867-F8DC693216D5}" name="Asc. Ao. (mm)" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{9B8444C6-0DA2-4BEB-904F-6A4B3507A81D}" name="Transv. Ao. (mm)" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{1C3F3917-5792-4E8E-AC6F-F48554D7D4D7}" name="Name" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{336EBA03-9898-4335-9A76-A52CA540CFDF}" name="Gestational Age (weeks)" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{BA6BDD30-A8F8-42FC-96C2-9A31291DE7C0}" name="Condition" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{9F4D0135-27FA-43D0-ACF5-07FA98D378FC}" name="Modeled?" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{A4692683-A0A0-4ABB-A325-AFE2AE76FBCB}" name="Scale" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{39BD6DEA-B984-4096-8B38-D4BF25A5FACE}" name="Ao. Root (mm)" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{3D94241B-1880-497A-A867-F8DC693216D5}" name="Asc. Ao. (mm)" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{9B8444C6-0DA2-4BEB-904F-6A4B3507A81D}" name="Transv. Ao. (mm)" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9DCC6C21-11B7-4727-AEAD-9257A5B487A4}" name="Table5" displayName="Table5" ref="J1:J2" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9DCC6C21-11B7-4727-AEAD-9257A5B487A4}" name="Table5" displayName="Table5" ref="J1:J2" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="J1:J2" xr:uid="{BD1D37B4-95B5-4392-80CD-CF9B4A777497}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{8B919515-83C3-4F6C-ABA0-08CBF098C509}" name="Name Select"/>
@@ -5383,37 +5846,38 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB3B74E0-C4F1-463A-BFFB-17CF6EC9D759}" name="Table2" displayName="Table2" ref="A1:F27" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
-  <autoFilter ref="A1:F27" xr:uid="{BEA93199-AA94-44B6-A75D-322DA6E2207A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB3B74E0-C4F1-463A-BFFB-17CF6EC9D759}" name="Table2" displayName="Table2" ref="A1:G27" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+  <autoFilter ref="A1:G27" xr:uid="{BEA93199-AA94-44B6-A75D-322DA6E2207A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
     <sortCondition ref="B1:B27"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{810F9A07-81D1-4B0F-94B8-DF7FD21126C3}" name="Name" dataDxfId="34">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{810F9A07-81D1-4B0F-94B8-DF7FD21126C3}" name="Name" dataDxfId="43">
       <calculatedColumnFormula>Table1[[#This Row],[Name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{284636E3-9483-4EFD-93E6-A255EE19BDB9}" name="Gestational Age (weeks)" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{284636E3-9483-4EFD-93E6-A255EE19BDB9}" name="Gestational Age (weeks)" dataDxfId="42">
       <calculatedColumnFormula>Table1[[#This Row],[Gestational Age (weeks)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3390CD25-AB55-4545-9046-BF11C72EE7E6}" name="Condition" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{3390CD25-AB55-4545-9046-BF11C72EE7E6}" name="Condition" dataDxfId="41">
       <calculatedColumnFormula>Table1[[#This Row],[Condition]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D87583CE-E9DB-4BDC-BBB3-583A6D1EA109}" name="Exp. Ao. Root (mm)" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{D87583CE-E9DB-4BDC-BBB3-583A6D1EA109}" name="Exp. Ao. Root (mm)" dataDxfId="40">
       <calculatedColumnFormula>(0.22*Table2[[#This Row],[Gestational Age (weeks)]])-0.38</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D10C7393-1AC4-48BB-902E-823519719B6B}" name="Ao. Root (mm)" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{D10C7393-1AC4-48BB-902E-823519719B6B}" name="Ao. Root (mm)" dataDxfId="39">
       <calculatedColumnFormula>Table1[[#This Row],[Ao. Root (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FF9C85D4-DCD2-4AFE-BD87-2DEDA1A22E03}" name="Error Ao. Root" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{FF9C85D4-DCD2-4AFE-BD87-2DEDA1A22E03}" name="Error Ao. Root" dataDxfId="38">
       <calculatedColumnFormula>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="9" xr3:uid="{E2398DEA-4846-42F4-9072-E7DE8AFDB810}" name="Uncertainty" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{33403FA3-50D7-429F-8EFF-6D0DE2D3F8F2}" name="Table58" displayName="Table58" ref="H1:H2" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{33403FA3-50D7-429F-8EFF-6D0DE2D3F8F2}" name="Table58" displayName="Table58" ref="H1:H2" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="H1:H2" xr:uid="{A24F08A4-F868-4567-91E4-99184BFF8B0B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0B3D8AE5-DE7C-4103-A98A-1E1317F4D2CE}" name="Name Select">
@@ -5425,37 +5889,38 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6481520A-41B6-4343-818A-058D0E1E0C7B}" name="Table4" displayName="Table4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
-  <autoFilter ref="A1:F27" xr:uid="{5B08C63C-C7B8-4694-B3A1-804F5123DA04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6481520A-41B6-4343-818A-058D0E1E0C7B}" name="Table4" displayName="Table4" ref="A1:G27" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="A1:G27" xr:uid="{5B08C63C-C7B8-4694-B3A1-804F5123DA04}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
     <sortCondition ref="B1:B27"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABF67C33-915A-4B40-9627-8692EF10E2C3}" name="Name" dataDxfId="20">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{ABF67C33-915A-4B40-9627-8692EF10E2C3}" name="Name" dataDxfId="33">
       <calculatedColumnFormula>Table1[[#This Row],[Name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F4102C55-2CE9-4030-A2F4-EEA99DE4FB14}" name="Gestational Age (weeks)" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{F4102C55-2CE9-4030-A2F4-EEA99DE4FB14}" name="Gestational Age (weeks)" dataDxfId="32">
       <calculatedColumnFormula>Table1[[#This Row],[Gestational Age (weeks)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5ACC1302-C26A-4E5D-A295-E4786B283D5E}" name="Condition" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{5ACC1302-C26A-4E5D-A295-E4786B283D5E}" name="Condition" dataDxfId="31">
       <calculatedColumnFormula>Table1[[#This Row],[Condition]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F2FE732-9662-4AB9-8303-A8A39C613BB5}" name="Exp. Asc. Ao. (mm)" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{2F2FE732-9662-4AB9-8303-A8A39C613BB5}" name="Exp. Asc. Ao. (mm)" dataDxfId="30">
       <calculatedColumnFormula>(0.2*Table4[[#This Row],[Gestational Age (weeks)]])-0.46</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EDBA3AE3-38B1-48CD-91A0-F588B58F0C21}" name="Asc. Ao. (mm)" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{EDBA3AE3-38B1-48CD-91A0-F588B58F0C21}" name="Asc. Ao. (mm)" dataDxfId="29">
       <calculatedColumnFormula>Table1[[#This Row],[Asc. Ao. (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D82218A8-4643-4596-8D99-0AF37300268B}" name="Error Asc. Ao" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{D82218A8-4643-4596-8D99-0AF37300268B}" name="Error Asc. Ao" dataDxfId="28">
       <calculatedColumnFormula>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="7" xr3:uid="{1CB8055D-1EBA-4850-93FA-C8F5A4E8A7F6}" name="Uncertainty" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{426D1520-A388-4C40-A612-4AB8C4BEE68D}" name="Table589" displayName="Table589" ref="H1:H2" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{426D1520-A388-4C40-A612-4AB8C4BEE68D}" name="Table589" displayName="Table589" ref="H1:H2" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="H1:H2" xr:uid="{59B5FCD6-EBDC-4D41-884A-E3ACFB92D985}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{88CB425D-1675-486B-9007-CE4CB628927E}" name="Name Select">
@@ -5467,35 +5932,36 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E72D87EC-7BF9-4558-9E78-074D2FC655EC}" name="Table3" displayName="Table3" ref="A1:F27" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:F27" xr:uid="{63912F93-E800-475D-B830-10E984592EA3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E72D87EC-7BF9-4558-9E78-074D2FC655EC}" name="Table3" displayName="Table3" ref="A1:G27" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:G27" xr:uid="{63912F93-E800-475D-B830-10E984592EA3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
     <sortCondition ref="B1:B27"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F5B38887-0050-4B5E-9554-506811F914B2}" name="Name" dataDxfId="6">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F5B38887-0050-4B5E-9554-506811F914B2}" name="Name" dataDxfId="21">
       <calculatedColumnFormula>Table1[[#This Row],[Name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C6FC35F6-1930-4F3C-9AB9-2DC5E04DBF4B}" name="Gestational Age (weeks)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{59800FA4-A662-4BF7-ADE9-CE93C06FECD9}" name="Condition" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{C6FC35F6-1930-4F3C-9AB9-2DC5E04DBF4B}" name="Gestational Age (weeks)" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{59800FA4-A662-4BF7-ADE9-CE93C06FECD9}" name="Condition" dataDxfId="19">
       <calculatedColumnFormula>Table1[[#This Row],[Condition]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A86B4F47-6B6D-4101-92CA-CEF1A05C7773}" name="Exp. Transv. Ao. (mm)" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{A86B4F47-6B6D-4101-92CA-CEF1A05C7773}" name="Exp. Transv. Ao. (mm)" dataDxfId="18">
       <calculatedColumnFormula>(0.18*Table3[[#This Row],[Gestational Age (weeks)]])-0.37</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{73BE2436-E416-4A78-A6F8-3876D8C18968}" name="Transv. Ao. (mm)" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{73BE2436-E416-4A78-A6F8-3876D8C18968}" name="Transv. Ao. (mm)" dataDxfId="17">
       <calculatedColumnFormula>Table1[[#This Row],[Transv. Ao. (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C5E1184C-57BA-4529-8AB0-EE09E6E85841}" name="Error Transv. Ao." dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{C5E1184C-57BA-4529-8AB0-EE09E6E85841}" name="Error Transv. Ao." dataDxfId="16">
       <calculatedColumnFormula>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="7" xr3:uid="{79B5B705-3578-4348-8247-839856BBB2BA}" name="Uncertainty" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6BB00F8E-0708-4C9C-9D81-9BF982A9C28C}" name="Table5810" displayName="Table5810" ref="H1:H2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6BB00F8E-0708-4C9C-9D81-9BF982A9C28C}" name="Table5810" displayName="Table5810" ref="H1:H2" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="H1:H2" xr:uid="{CC2351AC-D084-4DAF-8F62-A491CB2107BC}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{C666EB21-38DE-4D43-A97F-C102FF77D933}" name="Name Select">
@@ -5810,24 +6276,27 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5856,7 +6325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -5882,10 +6351,10 @@
         <v>2.87</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -5911,7 +6380,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -5940,7 +6409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -5966,7 +6435,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -5992,7 +6461,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
@@ -6018,7 +6487,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -6044,7 +6513,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -6070,7 +6539,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
@@ -6096,7 +6565,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
@@ -6122,7 +6591,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
@@ -6148,7 +6617,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
@@ -6174,7 +6643,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
@@ -6200,7 +6669,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>39</v>
       </c>
@@ -6226,7 +6695,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
@@ -6252,7 +6721,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>44</v>
       </c>
@@ -6278,7 +6747,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
@@ -6304,9 +6773,9 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B19" s="13">
         <v>29</v>
@@ -6330,9 +6799,9 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="13">
         <v>29.14</v>
@@ -6344,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="14">
         <v>7.95</v>
@@ -6356,9 +6825,9 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="13">
         <v>29.86</v>
@@ -6370,7 +6839,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="14">
         <v>4.46</v>
@@ -6382,9 +6851,9 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="13">
         <v>32</v>
@@ -6396,7 +6865,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="14">
         <v>6.79</v>
@@ -6408,9 +6877,9 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="13">
         <v>32</v>
@@ -6434,9 +6903,9 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="13">
         <v>32</v>
@@ -6448,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="14">
         <v>5.72</v>
@@ -6460,9 +6929,9 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B25" s="13">
         <v>32</v>
@@ -6486,7 +6955,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -6512,7 +6981,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>60</v>
       </c>
@@ -6529,10 +6998,10 @@
         <v>61</v>
       </c>
       <c r="F27" s="14">
-        <v>5.03</v>
+        <v>5.52</v>
       </c>
       <c r="G27" s="14">
-        <v>4.82</v>
+        <v>5.07</v>
       </c>
       <c r="H27" s="14">
         <v>5.14</v>
@@ -6544,13 +7013,13 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:H27">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>$A2=$J$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="8">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C2="Diseased"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="13">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>COUNTBLANK($A2:$D2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6573,13 +7042,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="J1" sqref="J1:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
@@ -6587,12 +7056,12 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6608,14 +7077,21 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>63</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="str">
+        <f>Table2[[#Headers],[Ao. Root (mm)]]</f>
+        <v>Ao. Root (mm)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>06Apr2021P1</v>
@@ -6640,12 +7116,22 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.21226415094339629</v>
       </c>
+      <c r="G2" s="44">
+        <v>0.36209999999999998</v>
+      </c>
       <c r="H2" t="str">
         <f>Table5[[#This Row],[Name Select]]</f>
-        <v>15Oct2019P1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>17Sep2019P1_3</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>3.34 ± 0.3621</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>15Oct2019P2</v>
@@ -6670,8 +7156,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>3.0251943429802371E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="44">
+        <v>0.2036</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.4 ± 0.2036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>23Mar2021P3</v>
@@ -6696,8 +7189,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>2.3227498360962752E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="44">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.37 ± 0.2347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>03Sep2019P2_0_1</v>
@@ -6722,8 +7222,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>4.5587620242576364E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="44">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.5 ± 0.2113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>20Apr2021P1</v>
@@ -6748,8 +7255,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.27970630605511404</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="44">
+        <v>0.3105</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>3.1 ± 0.3105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P1</v>
@@ -6774,8 +7288,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>4.9508605176948252E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="44">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.12 ± 0.2846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>09Feb2021P2</v>
@@ -6800,8 +7321,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>7.982282102154797E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="44">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.3 ± 0.3126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>13Apr2021P1</v>
@@ -6826,8 +7354,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.11871914363493752</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="44">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>3.82 ± 0.3185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>23Mar2021P1</v>
@@ -6852,8 +7387,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.390947261569695</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="44">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>2.64 ± 0.3934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>10Sep2019P1_1</v>
@@ -6878,8 +7420,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>7.9122188115636732E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="44">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.02 ± 0.2156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>13Apr2021P2</v>
@@ -6904,8 +7453,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>4.0179594080725654E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="44">
+        <v>0.27610000000000001</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.19 ± 0.2761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>02Mar2021P1</v>
@@ -6930,8 +7486,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.1180647821505475</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="44">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>3.85 ± 0.2567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>17Sep2019P1_3</v>
@@ -6956,8 +7519,16 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.23318385650224216</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="44">
+        <f>Uncertainty!H7</f>
+        <v>0.26775735284021612</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>3.42 ± 0.267757352840216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>24Sep2019P1_5</v>
@@ -6982,8 +7553,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.18609865470852019</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="44">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>3.63 ± 0.2378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>088pre_10000006</v>
@@ -7008,8 +7586,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>7.2970733196667692E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="44">
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.92 ± 0.2997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>09Feb2021P1</v>
@@ -7034,8 +7619,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.11240022680682157</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="44">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.07 ± 0.2875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>28weekshealthy</v>
@@ -7060,8 +7652,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.28546712802768154</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="44">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>7.43 ± 0.3289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>95pre</v>
@@ -7086,8 +7685,16 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.22166666666666668</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="44">
+        <f>Uncertainty!E7</f>
+        <v>0.21308683675910156</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.67 ± 0.213086836759102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>90pre_10000024</v>
@@ -7112,8 +7719,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.31823307023943753</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="43">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>7.95 ± 0.2673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>91pre_10000016</v>
@@ -7138,8 +7752,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.27938990499579908</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="44">
+        <v>0.2341</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>4.46 ± 0.2341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>24092010P2_4</v>
@@ -7164,8 +7785,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>1.9519519519519503E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="44">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>6.79 ± 0.4005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>01Oct2019P1_4</v>
@@ -7190,8 +7818,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.20270270270270277</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="44">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>5.31 ± 0.3456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P2</v>
@@ -7216,8 +7851,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.14114114114114121</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="44">
+        <v>0.245</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>5.72 ± 0.245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>15Oct2019P1</v>
@@ -7242,8 +7884,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.12312312312312317</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="44">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>5.84 ± 0.358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P3</v>
@@ -7268,8 +7917,15 @@
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
         <v>0.1466973207180122</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="44">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>5.79 ± 0.324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>102019P2</v>
@@ -7288,23 +7944,31 @@
       </c>
       <c r="E27" s="16">
         <f>Table1[[#This Row],[Ao. Root (mm)]]</f>
-        <v>5.03</v>
+        <v>5.52</v>
       </c>
       <c r="F27" s="17">
         <f>ABS(Table2[[#This Row],[Ao. Root (mm)]]-Table2[[#This Row],[Exp. Ao. Root (mm)]])/Table2[[#This Row],[Exp. Ao. Root (mm)]]</f>
-        <v>0.26889534883720928</v>
+        <v>0.19767441860465121</v>
+      </c>
+      <c r="G27" s="44">
+        <f>Uncertainty!B7</f>
+        <v>0.41671813015514453</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f>Table2[[#This Row],[Ao. Root (mm)]]&amp; " ± "&amp;Table2[[#This Row],[Uncertainty]]</f>
+        <v>5.52 ± 0.416718130155145</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:F27">
-    <cfRule type="expression" dxfId="41" priority="16">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>$A2=$H$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>$E2=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="23">
+    <cfRule type="expression" dxfId="7" priority="23">
       <formula>$C2="Diseased"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7328,13 +7992,13 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
@@ -7342,11 +8006,12 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7359,17 +8024,23 @@
       <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="59" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="G1" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>06Apr2021P1</v>
@@ -7394,12 +8065,19 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.32352941176470595</v>
       </c>
+      <c r="G2" s="44">
+        <v>0.12870000000000001</v>
+      </c>
       <c r="H2" t="str">
         <f>Table5[[#This Row],[Name Select]]</f>
-        <v>15Oct2019P1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>17Sep2019P1_3</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>2.53 ± 0.1287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>15Oct2019P2</v>
@@ -7424,8 +8102,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.30573248407643289</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="44">
+        <v>0.46870000000000001</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>4.92 ± 0.4687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>23Mar2021P3</v>
@@ -7450,8 +8135,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.12420382165605116</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="44">
+        <v>0.2278</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.3 ± 0.2278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>03Sep2019P2_0_1</v>
@@ -7476,8 +8168,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.24802527646129546</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="44">
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>4.74 ± 0.2756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>20Apr2021P1</v>
@@ -7502,8 +8201,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>1.2638230647709331E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="44">
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.75 ± 0.4862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P1</v>
@@ -7528,8 +8234,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>9.4093047569264177E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="44">
+        <v>0.1123</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.79 ± 0.1123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>09Feb2021P2</v>
@@ -7554,8 +8267,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>3.5546262415055027E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="44">
+        <v>0.1988</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.69 ± 0.1988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>13Apr2021P1</v>
@@ -7580,8 +8300,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.16100365917407225</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="44">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.21 ± 0.2945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>23Mar2021P1</v>
@@ -7606,8 +8333,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.13748039728175657</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="44">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.3 ± 0.2367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>10Sep2019P1_1</v>
@@ -7632,8 +8366,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.11001556824078877</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="44">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.43 ± 0.2156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>13Apr2021P2</v>
@@ -7658,8 +8399,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.20083030617540218</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="44">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.08 ± 0.203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>02Mar2021P1</v>
@@ -7684,8 +8432,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>1.9719771665801782E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="44">
+        <v>0.2006</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.93 ± 0.2006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>17Sep2019P1_3</v>
@@ -7710,8 +8465,16 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>4.568527918781741E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="44">
+        <f>Uncertainty!H13</f>
+        <v>0.18100828710310476</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.76 ± 0.181008287103105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>24Sep2019P1_5</v>
@@ -7736,8 +8499,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.34517766497461932</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="44">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>2.58 ± 0.2768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>088pre_10000006</v>
@@ -7762,8 +8532,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.13418845584607805</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="44">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.51 ± 0.2995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>09Feb2021P1</v>
@@ -7788,8 +8565,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>3.0587074494326617E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="44">
+        <v>0.3997</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.93 ± 0.3997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>28weekshealthy</v>
@@ -7814,8 +8598,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.13035019455252897</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="44">
+        <v>0.3921</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>5.81 ± 0.3921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>95pre</v>
@@ -7840,8 +8631,16 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>8.9887640449438103E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="44">
+        <f>Uncertainty!E13</f>
+        <v>0.58223277132088669</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>5.82 ± 0.582232771320887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>90pre_10000024</v>
@@ -7866,8 +8665,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.24441132637853935</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="44">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>6.68 ± 0.4782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>91pre_10000016</v>
@@ -7892,8 +8698,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.31059506531204656</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="44">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>3.8 ± 0.1954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>24092010P2_4</v>
@@ -7918,8 +8731,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>1.1784511784511682E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="44">
+        <v>0.2117</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>6.01 ± 0.2117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>01Oct2019P1_4</v>
@@ -7944,8 +8764,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>4.040404040404029E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="44">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>6.18 ± 0.2367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P2</v>
@@ -7970,8 +8797,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.2979797979797979</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="44">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>7.71 ± 0.4921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>15Oct2019P1</v>
@@ -7996,8 +8830,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>0.25252525252525249</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="44">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>7.44 ± 0.2347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P3</v>
@@ -8022,8 +8863,15 @@
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
         <v>5.8804096465146984E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="44">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>6.41 ± 0.3267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>102019P2</v>
@@ -8042,23 +8890,31 @@
       </c>
       <c r="E27" s="15">
         <f>Table1[[#This Row],[Asc. Ao. (mm)]]</f>
-        <v>4.82</v>
+        <v>5.07</v>
       </c>
       <c r="F27" s="17">
         <f>ABS(Table4[[#This Row],[Asc. Ao. (mm)]]-Table4[[#This Row],[Exp. Asc. Ao. (mm)]])/Table4[[#This Row],[Exp. Asc. Ao. (mm)]]</f>
-        <v>0.2149837133550489</v>
+        <v>0.17426710097719872</v>
+      </c>
+      <c r="G27" s="44">
+        <f>Uncertainty!B13</f>
+        <v>0.31124588350691484</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f>Table4[[#This Row],[Asc. Ao. (mm)]]&amp; " ± "&amp;Table4[[#This Row],[Uncertainty]]</f>
+        <v>5.07 ± 0.311245883506915</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:F27">
-    <cfRule type="expression" dxfId="27" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>$A2=$H$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="5" priority="21">
       <formula>$C2="Diseased"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>$E2=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8081,13 +8937,13 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -8095,11 +8951,11 @@
     <col min="4" max="4" width="19.28515625" style="23" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="23" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8109,20 +8965,26 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>67</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>06Apr2021P1</v>
@@ -8147,12 +9009,19 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.15835777126099695</v>
       </c>
+      <c r="G2" s="44">
+        <v>0.1452</v>
+      </c>
       <c r="H2" t="str">
         <f>Table5[[#This Row],[Name Select]]</f>
-        <v>15Oct2019P1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>17Sep2019P1_3</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>2.87 ± 0.1452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>15Oct2019P2</v>
@@ -8177,8 +9046,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.24883558453656265</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="44">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>4.29 ± 0.1523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>23Mar2021P3</v>
@@ -8203,8 +9079,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>2.1891010712622307E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="44">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.36 ± 0.0864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>03Sep2019P2_0_1</v>
@@ -8229,8 +9112,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.1161689099416555</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="44">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.06 ± 0.1248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>20Apr2021P1</v>
@@ -8255,8 +9145,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.19415400612327413</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="44">
+        <v>0.1169</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>2.79 ± 0.1169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P1</v>
@@ -8281,8 +9178,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.1183116361759478</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="44">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.9 ± 0.1567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>09Feb2021P2</v>
@@ -8307,8 +9211,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>7.3808567987612456E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="44">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.23 ± 0.1458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>13Apr2021P1</v>
@@ -8333,8 +9244,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.11544417044216337</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="44">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.89 ± 0.0865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>23Mar2021P1</v>
@@ -8359,8 +9277,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>3.6130068245685582E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="44">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.5 ± 0.0986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>10Sep2019P1_1</v>
@@ -8385,8 +9310,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>7.4019245003705458E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="44">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.51 ± 0.1786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>13Apr2021P2</v>
@@ -8411,8 +9343,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>4.059670899049133E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="44">
+        <v>0.1565</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.37 ± 0.1565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>02Mar2021P1</v>
@@ -8437,8 +9376,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.14877868245743886</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="44">
+        <v>0.1195</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>2.99 ± 0.1195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>17Sep2019P1_3</v>
@@ -8463,8 +9409,16 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>4.1782729805013907E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="44">
+        <f>Uncertainty!H19</f>
+        <v>6.8963758598266714E-2</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.44 ± 0.0689637585982667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>24Sep2019P1_5</v>
@@ -8489,8 +9443,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>4.1782729805014025E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="44">
+        <v>0.1245</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.74 ± 0.1245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>088pre_10000006</v>
@@ -8515,8 +9476,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.16860748524075175</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="44">
+        <v>0.1211</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.07 ± 0.1211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>09Feb2021P1</v>
@@ -8541,8 +9509,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.13611005795374526</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="44">
+        <v>9.98E-2</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.19 ± 0.0998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>28weekshealthy</v>
@@ -8567,8 +9542,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.54603854389721629</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="44">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>7.22 ± 0.1587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>95pre</v>
@@ -8593,8 +9575,16 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.38350515463917517</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="44">
+        <f>Uncertainty!E19</f>
+        <v>0.19176548177396269</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>2.99 ± 0.191765481773963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>90pre_10000024</v>
@@ -8619,8 +9609,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.28404988513291768</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="44">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>6.26 ± 0.0657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>91pre_10000016</v>
@@ -8645,8 +9642,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>0.3306425831202045</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="44">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>3.35 ± 0.0587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>24092010P2_4</v>
@@ -8671,8 +9675,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>9.8330241187383927E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="44">
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>4.86 ± 0.0965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>01Oct2019P1_4</v>
@@ -8697,8 +9708,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>1.4842300556586285E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="44">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>5.47 ± 0.0832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P2</v>
@@ -8723,8 +9741,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>9.6474953617810846E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="44">
+        <v>0.1343</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>5.91 ± 0.1343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>15Oct2019P1</v>
@@ -8749,8 +9774,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>2.968460111317257E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="44">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>5.55 ± 0.1289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>08Oct2019P3</v>
@@ -8775,8 +9807,15 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>8.4222408331209128E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="44">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>5.03 ± 0.0456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>Table1[[#This Row],[Name]]</f>
         <v>102019P2</v>
@@ -8801,17 +9840,25 @@
         <f>ABS(Table3[[#This Row],[Transv. Ao. (mm)]]-Table3[[#This Row],[Exp. Transv. Ao. (mm)]])/Table3[[#This Row],[Exp. Transv. Ao. (mm)]]</f>
         <v>7.7199281867145378E-2</v>
       </c>
+      <c r="G27" s="44">
+        <f>Uncertainty!B19</f>
+        <v>9.150956234186669E-2</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f>Table3[[#This Row],[Transv. Ao. (mm)]]&amp; " ± "&amp;Table3[[#This Row],[Uncertainty]]</f>
+        <v>5.14 ± 0.0915095623418667</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:F27">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>$A2=$H$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$C2="Diseased"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>$E2=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8827,4 +9874,974 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB34CC1-F9E8-49FE-B295-899C178222A6}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="34">
+        <v>5.03</v>
+      </c>
+      <c r="C2" s="34">
+        <f>B2-B22</f>
+        <v>-0.52199999999999935</v>
+      </c>
+      <c r="D2" s="31">
+        <f>C2^2</f>
+        <v>0.27248399999999934</v>
+      </c>
+      <c r="E2" s="34">
+        <v>4.67</v>
+      </c>
+      <c r="F2" s="34">
+        <f>E2-E22</f>
+        <v>-0.18400000000000016</v>
+      </c>
+      <c r="G2" s="34">
+        <f>F2^2</f>
+        <v>3.385600000000006E-2</v>
+      </c>
+      <c r="H2" s="34">
+        <v>3.42</v>
+      </c>
+      <c r="I2" s="34">
+        <f>H2-$H$22</f>
+        <v>-0.6980000000000004</v>
+      </c>
+      <c r="J2" s="34">
+        <f>I2^2</f>
+        <v>0.48720400000000058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="32">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C3" s="34">
+        <f>B3-B22</f>
+        <v>-0.44199999999999928</v>
+      </c>
+      <c r="D3" s="31">
+        <f t="shared" ref="D3:D6" si="0">C3^2</f>
+        <v>0.19536399999999937</v>
+      </c>
+      <c r="E3" s="32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F3" s="34">
+        <f>E3-E22</f>
+        <v>4.6000000000000263E-2</v>
+      </c>
+      <c r="G3" s="34">
+        <f t="shared" ref="G3:G6" si="1">F3^2</f>
+        <v>2.1160000000000241E-3</v>
+      </c>
+      <c r="H3" s="32">
+        <v>3.81</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" ref="I3:I6" si="2">H3-$H$22</f>
+        <v>-0.30800000000000027</v>
+      </c>
+      <c r="J3" s="34">
+        <f t="shared" ref="J3:J6" si="3">I3^2</f>
+        <v>9.486400000000017E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="32">
+        <v>6.66</v>
+      </c>
+      <c r="C4" s="34">
+        <f>B4-B22</f>
+        <v>1.1080000000000005</v>
+      </c>
+      <c r="D4" s="31">
+        <f t="shared" si="0"/>
+        <v>1.2276640000000012</v>
+      </c>
+      <c r="E4" s="32">
+        <v>5.05</v>
+      </c>
+      <c r="F4" s="34">
+        <f>E4-E22</f>
+        <v>0.19599999999999973</v>
+      </c>
+      <c r="G4" s="34">
+        <f t="shared" si="1"/>
+        <v>3.8415999999999895E-2</v>
+      </c>
+      <c r="H4" s="32">
+        <v>3.87</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.24800000000000022</v>
+      </c>
+      <c r="J4" s="34">
+        <f t="shared" si="3"/>
+        <v>6.1504000000000107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="32">
+        <v>6.42</v>
+      </c>
+      <c r="C5" s="34">
+        <f>B5-B22</f>
+        <v>0.86800000000000033</v>
+      </c>
+      <c r="D5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75342400000000054</v>
+      </c>
+      <c r="E5" s="32">
+        <v>4.18</v>
+      </c>
+      <c r="F5" s="34">
+        <f>E5-E22</f>
+        <v>-0.67400000000000038</v>
+      </c>
+      <c r="G5" s="34">
+        <f t="shared" si="1"/>
+        <v>0.45427600000000051</v>
+      </c>
+      <c r="H5" s="32">
+        <v>4.7</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.58199999999999985</v>
+      </c>
+      <c r="J5" s="34">
+        <f t="shared" si="3"/>
+        <v>0.3387239999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="32">
+        <v>4.54</v>
+      </c>
+      <c r="C6" s="34">
+        <f>B6-B22</f>
+        <v>-1.0119999999999996</v>
+      </c>
+      <c r="D6" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0241439999999991</v>
+      </c>
+      <c r="E6" s="32">
+        <v>5.47</v>
+      </c>
+      <c r="F6" s="34">
+        <f>E6-E22</f>
+        <v>0.61599999999999966</v>
+      </c>
+      <c r="G6" s="34">
+        <f t="shared" si="1"/>
+        <v>0.37945599999999957</v>
+      </c>
+      <c r="H6" s="32">
+        <v>4.79</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="2"/>
+        <v>0.67199999999999971</v>
+      </c>
+      <c r="J6" s="34">
+        <f t="shared" si="3"/>
+        <v>0.4515839999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="53">
+        <f>SQRT(SUM(D2:D6)/(B21*(B21-1)))</f>
+        <v>0.41671813015514453</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="53">
+        <f>SQRT(SUM(G2:G6)/(E21*(E21-1)))</f>
+        <v>0.21308683675910156</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="53">
+        <f>SQRT(SUM(J2:J6)/(H21*(H21-1)))</f>
+        <v>0.26775735284021612</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="40">
+        <v>4.82</v>
+      </c>
+      <c r="C8" s="40">
+        <f>B8-B23</f>
+        <v>-0.25199999999999978</v>
+      </c>
+      <c r="D8" s="40">
+        <f>C8^2</f>
+        <v>6.3503999999999894E-2</v>
+      </c>
+      <c r="E8" s="40">
+        <v>5.82</v>
+      </c>
+      <c r="F8" s="40">
+        <f>E8-$E$23</f>
+        <v>0.16200000000000081</v>
+      </c>
+      <c r="G8" s="40">
+        <f>F8^2</f>
+        <v>2.6244000000000264E-2</v>
+      </c>
+      <c r="H8" s="40">
+        <v>3.76</v>
+      </c>
+      <c r="I8" s="40">
+        <f>H8-$H$23</f>
+        <v>-0.44200000000000017</v>
+      </c>
+      <c r="J8" s="40">
+        <f>I8^2</f>
+        <v>0.19536400000000015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="41">
+        <v>5.21</v>
+      </c>
+      <c r="C9" s="41">
+        <f>B9-B23</f>
+        <v>0.1379999999999999</v>
+      </c>
+      <c r="D9" s="40">
+        <f t="shared" ref="D9:D12" si="4">C9^2</f>
+        <v>1.9043999999999974E-2</v>
+      </c>
+      <c r="E9" s="41">
+        <v>6.5</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" ref="F9:F12" si="5">E9-$E$23</f>
+        <v>0.84200000000000053</v>
+      </c>
+      <c r="G9" s="40">
+        <f t="shared" ref="G9:G12" si="6">F9^2</f>
+        <v>0.70896400000000093</v>
+      </c>
+      <c r="H9" s="41">
+        <v>3.86</v>
+      </c>
+      <c r="I9" s="40">
+        <f t="shared" ref="I9:I12" si="7">H9-$H$23</f>
+        <v>-0.34200000000000008</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" ref="J9:J12" si="8">I9^2</f>
+        <v>0.11696400000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="41">
+        <v>4.75</v>
+      </c>
+      <c r="C10" s="41">
+        <f>B10-B23</f>
+        <v>-0.32200000000000006</v>
+      </c>
+      <c r="D10" s="40">
+        <f t="shared" si="4"/>
+        <v>0.10368400000000004</v>
+      </c>
+      <c r="E10" s="41">
+        <v>4.83</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="5"/>
+        <v>-0.8279999999999994</v>
+      </c>
+      <c r="G10" s="40">
+        <f t="shared" si="6"/>
+        <v>0.68558399999999897</v>
+      </c>
+      <c r="H10" s="41">
+        <v>4.76</v>
+      </c>
+      <c r="I10" s="40">
+        <f t="shared" si="7"/>
+        <v>0.55799999999999983</v>
+      </c>
+      <c r="J10" s="40">
+        <f t="shared" si="8"/>
+        <v>0.31136399999999981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="41">
+        <v>6.2</v>
+      </c>
+      <c r="C11" s="41">
+        <f>B11-B23</f>
+        <v>1.1280000000000001</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" si="4"/>
+        <v>1.2723840000000002</v>
+      </c>
+      <c r="E11" s="41">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F11" s="40">
+        <f>H2-$E$23</f>
+        <v>-2.2379999999999995</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" si="6"/>
+        <v>5.0086439999999977</v>
+      </c>
+      <c r="H11" s="41">
+        <v>4.37</v>
+      </c>
+      <c r="I11" s="40">
+        <f t="shared" si="7"/>
+        <v>0.16800000000000015</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="8"/>
+        <v>2.8224000000000051E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="41">
+        <v>4.38</v>
+      </c>
+      <c r="C12" s="41">
+        <f>B12-B23</f>
+        <v>-0.69200000000000017</v>
+      </c>
+      <c r="D12" s="40">
+        <f t="shared" si="4"/>
+        <v>0.47886400000000023</v>
+      </c>
+      <c r="E12" s="41">
+        <v>6.25</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="5"/>
+        <v>0.59200000000000053</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="6"/>
+        <v>0.35046400000000061</v>
+      </c>
+      <c r="H12" s="41">
+        <v>4.26</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="7"/>
+        <v>5.7999999999999829E-2</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="8"/>
+        <v>3.3639999999999803E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="53">
+        <f>SQRT(SUM(D8:D12)/(B21*(B21-1)))</f>
+        <v>0.31124588350691484</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="53">
+        <f>SQRT(SUM(G8:G12)/(E21*(E21-1)))</f>
+        <v>0.58223277132088669</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="53">
+        <f>SQRT(SUM(J8:J12)/(H21*(H21-1)))</f>
+        <v>0.18100828710310476</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="40">
+        <v>5.14</v>
+      </c>
+      <c r="C14" s="40">
+        <f>B14-B24</f>
+        <v>0.14199999999999946</v>
+      </c>
+      <c r="D14" s="40">
+        <f>C14^2</f>
+        <v>2.0163999999999845E-2</v>
+      </c>
+      <c r="E14" s="40">
+        <v>2.99</v>
+      </c>
+      <c r="F14" s="40">
+        <f>E14-$E$24</f>
+        <v>0.1980000000000004</v>
+      </c>
+      <c r="G14" s="40">
+        <f>F14^2</f>
+        <v>3.9204000000000155E-2</v>
+      </c>
+      <c r="H14" s="40">
+        <v>3.44</v>
+      </c>
+      <c r="I14" s="40">
+        <f>H14-$H$24</f>
+        <v>-8.5999999999999854E-2</v>
+      </c>
+      <c r="J14" s="40">
+        <f>I14^2</f>
+        <v>7.3959999999999746E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="41">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C15" s="40">
+        <f>B15-B24</f>
+        <v>-0.26799999999999979</v>
+      </c>
+      <c r="D15" s="40">
+        <f t="shared" ref="D15:D18" si="9">C15^2</f>
+        <v>7.1823999999999888E-2</v>
+      </c>
+      <c r="E15" s="41">
+        <v>3.2</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" ref="F15:F18" si="10">E15-$E$24</f>
+        <v>0.40800000000000036</v>
+      </c>
+      <c r="G15" s="40">
+        <f t="shared" ref="G15:G18" si="11">F15^2</f>
+        <v>0.16646400000000031</v>
+      </c>
+      <c r="H15" s="41">
+        <v>3.62</v>
+      </c>
+      <c r="I15" s="40">
+        <f t="shared" ref="I15:I18" si="12">H15-$H$24</f>
+        <v>9.4000000000000306E-2</v>
+      </c>
+      <c r="J15" s="40">
+        <f t="shared" ref="J15:J18" si="13">I15^2</f>
+        <v>8.8360000000000574E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="41">
+        <v>4.83</v>
+      </c>
+      <c r="C16" s="40">
+        <f>B16-B24</f>
+        <v>-0.16800000000000015</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" si="9"/>
+        <v>2.8224000000000051E-2</v>
+      </c>
+      <c r="E16" s="41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="10"/>
+        <v>-0.49199999999999999</v>
+      </c>
+      <c r="G16" s="40">
+        <f t="shared" si="11"/>
+        <v>0.242064</v>
+      </c>
+      <c r="H16" s="41">
+        <v>3.59</v>
+      </c>
+      <c r="I16" s="40">
+        <f t="shared" si="12"/>
+        <v>6.4000000000000057E-2</v>
+      </c>
+      <c r="J16" s="40">
+        <f t="shared" si="13"/>
+        <v>4.0960000000000076E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C17" s="40">
+        <f>B17-B24</f>
+        <v>0.10199999999999942</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" si="9"/>
+        <v>1.0403999999999882E-2</v>
+      </c>
+      <c r="E17" s="41">
+        <v>3.11</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="10"/>
+        <v>0.31800000000000006</v>
+      </c>
+      <c r="G17" s="40">
+        <f t="shared" si="11"/>
+        <v>0.10112400000000003</v>
+      </c>
+      <c r="H17" s="41">
+        <v>3.3</v>
+      </c>
+      <c r="I17" s="40">
+        <f t="shared" si="12"/>
+        <v>-0.22599999999999998</v>
+      </c>
+      <c r="J17" s="40">
+        <f t="shared" si="13"/>
+        <v>5.1075999999999989E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="41">
+        <v>5.19</v>
+      </c>
+      <c r="C18" s="40">
+        <f>B18-B24</f>
+        <v>0.19200000000000017</v>
+      </c>
+      <c r="D18" s="40">
+        <f t="shared" si="9"/>
+        <v>3.6864000000000063E-2</v>
+      </c>
+      <c r="E18" s="41">
+        <v>2.36</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="10"/>
+        <v>-0.43199999999999994</v>
+      </c>
+      <c r="G18" s="40">
+        <f t="shared" si="11"/>
+        <v>0.18662399999999996</v>
+      </c>
+      <c r="H18" s="41">
+        <v>3.68</v>
+      </c>
+      <c r="I18" s="40">
+        <f t="shared" si="12"/>
+        <v>0.15400000000000036</v>
+      </c>
+      <c r="J18" s="40">
+        <f t="shared" si="13"/>
+        <v>2.3716000000000112E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="56">
+        <f>SQRT(SUM(D14:D18)/(B21*(B21-1)))</f>
+        <v>9.150956234186669E-2</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="56">
+        <f>SQRT(SUM(G14:G18)/(E21*(E21-1)))</f>
+        <v>0.19176548177396269</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="56">
+        <f>SQRT(SUM(J14:J18)/(H21*(H21-1)))</f>
+        <v>6.8963758598266714E-2</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="46">
+        <v>5</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="46">
+        <v>5</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="46">
+        <v>5</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="46">
+        <f>SUM(B2:B6)/B21</f>
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="46">
+        <f>SUM(E2:E6)/E21</f>
+        <v>4.8540000000000001</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="46">
+        <f>SUM(H2:H6)/H21</f>
+        <v>4.1180000000000003</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="46">
+        <f>SUM(B8:B12)/B21</f>
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="46">
+        <f>SUM(E8:E12)/E21</f>
+        <v>5.6579999999999995</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="46">
+        <f>SUM(H8:H12)/H21</f>
+        <v>4.202</v>
+      </c>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="46">
+        <f>SUM(B14:B18)/B21</f>
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="46">
+        <f>SUM(E14:E18)/E21</f>
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="46">
+        <f>SUM(H14:H18)/H21</f>
+        <v>3.5259999999999998</v>
+      </c>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FD4455-B69E-4E2A-914D-4B86795E312F}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="61">
+        <v>2.6495888999883501</v>
+      </c>
+      <c r="C2" s="61">
+        <v>0.146237411541669</v>
+      </c>
+      <c r="D2" s="61">
+        <v>0.52555141815329898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="61">
+        <v>25</v>
+      </c>
+      <c r="C3" s="61">
+        <v>25</v>
+      </c>
+      <c r="D3" s="61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="61">
+        <v>1.376968109564E-2</v>
+      </c>
+      <c r="C5" s="61">
+        <v>0.884906786039377</v>
+      </c>
+      <c r="D5" s="61">
+        <v>0.60383068432586295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0.39306803555077602</v>
+      </c>
+      <c r="C7" s="61">
+        <v>2.0205364255017299E-2</v>
+      </c>
+      <c r="D7" s="61">
+        <v>8.4238333771532101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="61">
+        <v>3.61</v>
+      </c>
+      <c r="C8" s="61">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="61">
+        <v>0.48692936092244898</v>
+      </c>
+      <c r="C9" s="61">
+        <v>5.1126487695984997E-2</v>
+      </c>
+      <c r="D9" s="61">
+        <v>6.9785308533517901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="61">
+        <v>0.72925320275737704</v>
+      </c>
+      <c r="C10" s="61">
+        <v>0.82871025463386006</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0.70510470873655295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>